--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_17_35.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_17_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1165016.399618162</v>
+        <v>1161408.877938664</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5658037.59803602</v>
+        <v>5658037.598036024</v>
       </c>
     </row>
     <row r="9">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1384,10 +1384,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1426,16 +1426,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>307.9518494926194</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>359.1692499865937</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>35.77164440601916</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>163.0937685836068</v>
@@ -1548,7 +1548,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
         <v>239.8247518556274</v>
@@ -1593,7 +1593,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>219.7688726782991</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1609,22 +1609,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>342.881375625476</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,19 +1660,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>142.7866181652438</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1770,13 +1770,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>109.477682765599</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>163.0937685836068</v>
@@ -1785,7 +1785,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,13 +1821,13 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>60.3406324924047</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>344.7189380347891</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>350.2817982387052</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -2004,22 +2004,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>49.34995949258659</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>126.089799394934</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>239.8247518556274</v>
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>349.8809047577586</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
@@ -2137,13 +2137,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.4799845637012</v>
+        <v>130.7837217554836</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>82.68980382700953</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
         <v>62.46433369811443</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
-        <v>238.293914309378</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U22" t="n">
         <v>275.6027656317444</v>
@@ -2317,19 +2317,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>339.3910249395282</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>266.3953342921274</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
         <v>395.5076644073176</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
@@ -2557,7 +2557,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2569,10 +2569,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>140.5747018729946</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4799845637012</v>
+        <v>91.7769668140684</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
         <v>431.5506869772999</v>
@@ -2809,7 +2809,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4799845637012</v>
+        <v>111.8188796892097</v>
       </c>
       <c r="V29" t="n">
-        <v>197.7932993697917</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
@@ -3040,13 +3040,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>395.5076644073176</v>
+        <v>254.2429219530929</v>
       </c>
       <c r="H32" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>81.71384815418845</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3277,7 +3277,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>330.5747992913838</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>167.4490654225685</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>89.30668535812433</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>49.34995949258661</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
         <v>239.8247518556274</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>244.9043102021001</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>298.4956188430021</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3666,7 +3666,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>49.34995949258659</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3675,13 +3675,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>275.6027656317444</v>
@@ -3726,10 +3726,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>93.47781416967008</v>
       </c>
     </row>
     <row r="41">
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>149.6157531058528</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>260.8239077163737</v>
       </c>
     </row>
     <row r="42">
@@ -3903,22 +3903,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>49.34995949258659</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>120.1984533929678</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3979,7 +3979,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -3991,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
-        <v>237.6391403589121</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>337.975221904612</v>
       </c>
     </row>
     <row r="45">
@@ -4140,13 +4140,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>11.96377639543406</v>
       </c>
       <c r="F46" t="n">
-        <v>60.07073011995545</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
         <v>239.8247518556274</v>
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>755.070575821621</v>
+        <v>884.8517156860543</v>
       </c>
       <c r="C11" t="n">
-        <v>316.9281030050443</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="D11" t="n">
-        <v>316.9281030050443</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E11" t="n">
-        <v>316.9281030050443</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F11" t="n">
-        <v>316.9281030050443</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G11" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435807</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L11" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867024</v>
       </c>
       <c r="M11" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N11" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O11" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P11" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q11" t="n">
         <v>2243.650993163596</v>
@@ -5074,19 +5074,19 @@
         <v>2319.861207662534</v>
       </c>
       <c r="U11" t="n">
-        <v>2319.861207662534</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V11" t="n">
-        <v>2319.861207662534</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="W11" t="n">
-        <v>2008.798733427564</v>
+        <v>1655.935061595081</v>
       </c>
       <c r="X11" t="n">
-        <v>1589.656270006875</v>
+        <v>1293.137839386401</v>
       </c>
       <c r="Y11" t="n">
-        <v>1181.370146306529</v>
+        <v>884.8517156860543</v>
       </c>
     </row>
     <row r="12">
@@ -5111,19 +5111,19 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>79.14920158235849</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J12" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K12" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L12" t="n">
         <v>551.5786779960905</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>616.0817647851416</v>
+        <v>686.8768393938415</v>
       </c>
       <c r="C13" t="n">
-        <v>443.5200532683665</v>
+        <v>686.8768393938415</v>
       </c>
       <c r="D13" t="n">
-        <v>407.3870791208724</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="E13" t="n">
-        <v>407.3870791208724</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F13" t="n">
-        <v>407.3870791208724</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G13" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H13" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J13" t="n">
         <v>106.1122152511379</v>
@@ -5205,19 +5205,19 @@
         <v>202.912315818696</v>
       </c>
       <c r="L13" t="n">
-        <v>744.992999204955</v>
+        <v>481.9462364092378</v>
       </c>
       <c r="M13" t="n">
-        <v>875.5973915434845</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N13" t="n">
-        <v>1120.185357954413</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O13" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P13" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q13" t="n">
         <v>2343.856484770969</v>
@@ -5226,25 +5226,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S13" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T13" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U13" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V13" t="n">
-        <v>1552.738213270316</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W13" t="n">
-        <v>1280.711808856608</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X13" t="n">
-        <v>1035.320054190021</v>
+        <v>914.2965100797333</v>
       </c>
       <c r="Y13" t="n">
-        <v>807.9003835041287</v>
+        <v>686.8768393938415</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2360.327577447737</v>
+        <v>921.2588091910869</v>
       </c>
       <c r="C14" t="n">
-        <v>2013.98275358362</v>
+        <v>483.1163363745102</v>
       </c>
       <c r="D14" t="n">
-        <v>1578.072968758064</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="E14" t="n">
-        <v>1144.298223916359</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F14" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G14" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228012</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867019</v>
       </c>
       <c r="M14" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N14" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O14" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P14" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q14" t="n">
         <v>2243.650993163596</v>
@@ -5308,22 +5308,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U14" t="n">
-        <v>2360.327577447737</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="V14" t="n">
-        <v>2360.327577447737</v>
+        <v>1745.256727200743</v>
       </c>
       <c r="W14" t="n">
-        <v>2360.327577447737</v>
+        <v>1340.401272611776</v>
       </c>
       <c r="X14" t="n">
-        <v>2360.327577447737</v>
+        <v>921.2588091910869</v>
       </c>
       <c r="Y14" t="n">
-        <v>2360.327577447737</v>
+        <v>921.2588091910869</v>
       </c>
     </row>
     <row r="15">
@@ -5336,22 +5336,22 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C15" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E15" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G15" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I15" t="n">
         <v>81.42328772043086</v>
@@ -5412,49 +5412,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1036.997366370204</v>
+        <v>682.7314968723728</v>
       </c>
       <c r="C16" t="n">
-        <v>864.4356548534284</v>
+        <v>510.1697853555977</v>
       </c>
       <c r="D16" t="n">
-        <v>753.852136908379</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="E16" t="n">
-        <v>584.0941331591162</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="F16" t="n">
-        <v>407.3870791208724</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G16" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H16" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J16" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K16" t="n">
-        <v>393.4422361027644</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L16" t="n">
-        <v>935.5229194890233</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M16" t="n">
-        <v>1066.127311827553</v>
+        <v>1690.512214359095</v>
       </c>
       <c r="N16" t="n">
-        <v>1635.885026789087</v>
+        <v>1818.011126162985</v>
       </c>
       <c r="O16" t="n">
-        <v>2173.32015736263</v>
+        <v>1935.777007510746</v>
       </c>
       <c r="P16" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q16" t="n">
         <v>2343.856484770969</v>
@@ -5463,25 +5463,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S16" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T16" t="n">
         <v>1973.653814855378</v>
       </c>
       <c r="U16" t="n">
-        <v>1973.653814855378</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V16" t="n">
-        <v>1973.653814855378</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W16" t="n">
-        <v>1701.62741044167</v>
+        <v>1347.361540943839</v>
       </c>
       <c r="X16" t="n">
-        <v>1456.235655775082</v>
+        <v>1101.969786277252</v>
       </c>
       <c r="Y16" t="n">
-        <v>1228.815985089191</v>
+        <v>874.5501155913598</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1580.208008741915</v>
+        <v>1355.033554032792</v>
       </c>
       <c r="C17" t="n">
-        <v>1580.208008741915</v>
+        <v>916.8910812162151</v>
       </c>
       <c r="D17" t="n">
-        <v>1144.298223916359</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="E17" t="n">
-        <v>1144.298223916359</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="F17" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G17" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H17" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L17" t="n">
         <v>805.4408022867025</v>
@@ -5542,25 +5542,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T17" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U17" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V17" t="n">
-        <v>2006.507579226823</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="W17" t="n">
-        <v>2006.507579226823</v>
+        <v>1703.23450154268</v>
       </c>
       <c r="X17" t="n">
-        <v>2006.507579226823</v>
+        <v>1703.23450154268</v>
       </c>
       <c r="Y17" t="n">
-        <v>2006.507579226823</v>
+        <v>1703.23450154268</v>
       </c>
     </row>
     <row r="18">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>471.655226289377</v>
+        <v>616.081764785142</v>
       </c>
       <c r="C19" t="n">
-        <v>471.655226289377</v>
+        <v>443.520053268367</v>
       </c>
       <c r="D19" t="n">
-        <v>471.655226289377</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E19" t="n">
-        <v>471.655226289377</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F19" t="n">
-        <v>344.2917925571204</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G19" t="n">
-        <v>179.5506121696388</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H19" t="n">
         <v>47.20655154895474</v>
@@ -5673,25 +5673,25 @@
         <v>47.20655154895474</v>
       </c>
       <c r="J19" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K19" t="n">
-        <v>289.4920009833859</v>
+        <v>477.6707703898317</v>
       </c>
       <c r="L19" t="n">
-        <v>413.3628026016839</v>
+        <v>1019.751453776091</v>
       </c>
       <c r="M19" t="n">
-        <v>550.4276429928792</v>
+        <v>1150.35584611462</v>
       </c>
       <c r="N19" t="n">
-        <v>1120.185357954413</v>
+        <v>1277.854757918509</v>
       </c>
       <c r="O19" t="n">
-        <v>1657.620488527957</v>
+        <v>1815.289888492053</v>
       </c>
       <c r="P19" t="n">
-        <v>2105.896438675982</v>
+        <v>2263.565838640078</v>
       </c>
       <c r="Q19" t="n">
         <v>2343.856484770969</v>
@@ -5700,25 +5700,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S19" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T19" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U19" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V19" t="n">
-        <v>1408.311674774552</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W19" t="n">
-        <v>1136.285270360843</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X19" t="n">
-        <v>890.8935156942559</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y19" t="n">
-        <v>663.4738450083642</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1698.173566117875</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C20" t="n">
         <v>1344.758510807007</v>
@@ -5752,16 +5752,16 @@
         <v>118.4065018001353</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M20" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N20" t="n">
         <v>1463.013992431967</v>
@@ -5770,7 +5770,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P20" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q20" t="n">
         <v>2243.650993163596</v>
@@ -5785,19 +5785,19 @@
         <v>2319.861207662534</v>
       </c>
       <c r="U20" t="n">
-        <v>2060.790516184048</v>
+        <v>2187.756438212551</v>
       </c>
       <c r="V20" t="n">
-        <v>1698.173566117875</v>
+        <v>2187.756438212551</v>
       </c>
       <c r="W20" t="n">
-        <v>1698.173566117875</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="X20" t="n">
-        <v>1698.173566117875</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="Y20" t="n">
-        <v>1698.173566117875</v>
+        <v>1782.900983623584</v>
       </c>
     </row>
     <row r="21">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>617.6280653369093</v>
+        <v>663.4738450083642</v>
       </c>
       <c r="C22" t="n">
-        <v>617.6280653369093</v>
+        <v>490.9121334915891</v>
       </c>
       <c r="D22" t="n">
-        <v>451.7500725384321</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="E22" t="n">
-        <v>451.7500725384321</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="F22" t="n">
-        <v>275.0430185001883</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G22" t="n">
-        <v>110.3018381127067</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H22" t="n">
         <v>110.3018381127067</v>
@@ -5910,25 +5910,25 @@
         <v>47.20655154895474</v>
       </c>
       <c r="J22" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K22" t="n">
-        <v>289.4920009833859</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L22" t="n">
-        <v>413.3628026016839</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M22" t="n">
-        <v>897.9345369632209</v>
+        <v>1329.17407462327</v>
       </c>
       <c r="N22" t="n">
-        <v>1467.692251924755</v>
+        <v>1898.931789584804</v>
       </c>
       <c r="O22" t="n">
-        <v>2005.127382498298</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P22" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q22" t="n">
         <v>2343.856484770969</v>
@@ -5937,25 +5937,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S22" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T22" t="n">
-        <v>2119.626653902911</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U22" t="n">
-        <v>1841.240021951654</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V22" t="n">
-        <v>1554.284513822084</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W22" t="n">
-        <v>1282.258109408376</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X22" t="n">
-        <v>1036.866354741788</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="Y22" t="n">
-        <v>809.4466840558964</v>
+        <v>663.4738450083642</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1445.687032924669</v>
+        <v>2040.475699093513</v>
       </c>
       <c r="C23" t="n">
-        <v>1445.687032924669</v>
+        <v>1602.333226276937</v>
       </c>
       <c r="D23" t="n">
-        <v>1009.777248099114</v>
+        <v>1602.333226276937</v>
       </c>
       <c r="E23" t="n">
-        <v>1009.777248099114</v>
+        <v>1168.558481435232</v>
       </c>
       <c r="F23" t="n">
-        <v>740.6910518444397</v>
+        <v>740.6910518444395</v>
       </c>
       <c r="G23" t="n">
-        <v>341.1883605239169</v>
+        <v>341.1883605239167</v>
       </c>
       <c r="H23" t="n">
-        <v>71.46680906782727</v>
+        <v>71.46680906782714</v>
       </c>
       <c r="I23" t="n">
-        <v>142.6667593190079</v>
+        <v>142.6667593190078</v>
       </c>
       <c r="J23" t="n">
-        <v>735.5682220153711</v>
+        <v>735.5682220153709</v>
       </c>
       <c r="K23" t="n">
-        <v>971.8398723945921</v>
+        <v>971.8398723945919</v>
       </c>
       <c r="L23" t="n">
         <v>1264.955747258493</v>
@@ -6007,34 +6007,34 @@
         <v>2235.48445194505</v>
       </c>
       <c r="P23" t="n">
-        <v>2540.429823384503</v>
+        <v>2540.429823384497</v>
       </c>
       <c r="Q23" t="n">
-        <v>3287.509804354166</v>
+        <v>3287.50980435416</v>
       </c>
       <c r="R23" t="n">
-        <v>3573.340453391363</v>
+        <v>3573.340453391357</v>
       </c>
       <c r="S23" t="n">
-        <v>3532.87408360616</v>
+        <v>3573.340453391357</v>
       </c>
       <c r="T23" t="n">
-        <v>3321.102832075273</v>
+        <v>3573.340453391357</v>
       </c>
       <c r="U23" t="n">
-        <v>3062.032140596787</v>
+        <v>3573.340453391357</v>
       </c>
       <c r="V23" t="n">
-        <v>2699.415190530613</v>
+        <v>3210.723503325184</v>
       </c>
       <c r="W23" t="n">
-        <v>2699.415190530613</v>
+        <v>3210.723503325184</v>
       </c>
       <c r="X23" t="n">
-        <v>2280.272727109924</v>
+        <v>2791.581039904494</v>
       </c>
       <c r="Y23" t="n">
-        <v>1871.986603409577</v>
+        <v>2383.294916204148</v>
       </c>
     </row>
     <row r="24">
@@ -6044,40 +6044,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>566.8315625852633</v>
+        <v>566.8315625852632</v>
       </c>
       <c r="C24" t="n">
-        <v>460.3751014219056</v>
+        <v>460.3751014219055</v>
       </c>
       <c r="D24" t="n">
-        <v>365.2848125684588</v>
+        <v>365.2848125684587</v>
       </c>
       <c r="E24" t="n">
-        <v>271.1643978954125</v>
+        <v>271.1643978954124</v>
       </c>
       <c r="F24" t="n">
-        <v>187.7805595115742</v>
+        <v>187.780559511574</v>
       </c>
       <c r="G24" t="n">
-        <v>103.409459101231</v>
+        <v>103.4094591012309</v>
       </c>
       <c r="H24" t="n">
-        <v>71.46680906782727</v>
+        <v>71.46680906782714</v>
       </c>
       <c r="I24" t="n">
-        <v>105.6835452393033</v>
+        <v>105.6835452393031</v>
       </c>
       <c r="J24" t="n">
-        <v>199.5768845857705</v>
+        <v>199.5768845857702</v>
       </c>
       <c r="K24" t="n">
-        <v>360.0555566399407</v>
+        <v>360.0555566399404</v>
       </c>
       <c r="L24" t="n">
-        <v>575.8389355149631</v>
+        <v>575.8389355149628</v>
       </c>
       <c r="M24" t="n">
-        <v>827.6479608176604</v>
+        <v>827.6479608176602</v>
       </c>
       <c r="N24" t="n">
         <v>1086.12162173898</v>
@@ -6089,13 +6089,13 @@
         <v>1512.348825118317</v>
       </c>
       <c r="Q24" t="n">
-        <v>1639.207919326552</v>
+        <v>1639.207919326551</v>
       </c>
       <c r="R24" t="n">
         <v>1700.911373752464</v>
       </c>
       <c r="S24" t="n">
-        <v>1656.290343152199</v>
+        <v>1656.290343152198</v>
       </c>
       <c r="T24" t="n">
         <v>1530.198788027851</v>
@@ -6107,13 +6107,13 @@
         <v>1154.811432913732</v>
       </c>
       <c r="W24" t="n">
-        <v>969.4886786469258</v>
+        <v>969.4886786469256</v>
       </c>
       <c r="X24" t="n">
-        <v>814.6212428858057</v>
+        <v>814.6212428858056</v>
       </c>
       <c r="Y24" t="n">
-        <v>688.1354636650265</v>
+        <v>688.1354636650264</v>
       </c>
     </row>
     <row r="25">
@@ -6126,58 +6126,58 @@
         <v>1116.552098742504</v>
       </c>
       <c r="C25" t="n">
-        <v>943.9903872257288</v>
+        <v>943.9903872257286</v>
       </c>
       <c r="D25" t="n">
-        <v>778.1123944272515</v>
+        <v>778.1123944272513</v>
       </c>
       <c r="E25" t="n">
-        <v>608.3543906779887</v>
+        <v>608.3543906779886</v>
       </c>
       <c r="F25" t="n">
-        <v>431.6473366397449</v>
+        <v>431.6473366397448</v>
       </c>
       <c r="G25" t="n">
-        <v>266.9061562522633</v>
+        <v>266.9061562522632</v>
       </c>
       <c r="H25" t="n">
-        <v>134.5620956315792</v>
+        <v>134.5620956315791</v>
       </c>
       <c r="I25" t="n">
-        <v>71.46680906782727</v>
+        <v>71.46680906782714</v>
       </c>
       <c r="J25" t="n">
-        <v>216.9521579347002</v>
+        <v>130.3724727700103</v>
       </c>
       <c r="K25" t="n">
-        <v>588.510713073394</v>
+        <v>231.3483474046364</v>
       </c>
       <c r="L25" t="n">
-        <v>1064.720123107478</v>
+        <v>773.4290307908954</v>
       </c>
       <c r="M25" t="n">
-        <v>1195.324515446007</v>
+        <v>1363.517290310338</v>
       </c>
       <c r="N25" t="n">
-        <v>1765.082230407541</v>
+        <v>1933.275005271872</v>
       </c>
       <c r="O25" t="n">
-        <v>2302.517360981084</v>
+        <v>2470.710135845415</v>
       </c>
       <c r="P25" t="n">
-        <v>2750.79331112911</v>
+        <v>2918.98608599344</v>
       </c>
       <c r="Q25" t="n">
-        <v>2988.753357224097</v>
+        <v>2988.753357224096</v>
       </c>
       <c r="R25" t="n">
-        <v>3005.224449900865</v>
+        <v>3005.224449900864</v>
       </c>
       <c r="S25" t="n">
         <v>2860.797911405099</v>
       </c>
       <c r="T25" t="n">
-        <v>2618.550687308506</v>
+        <v>2618.550687308505</v>
       </c>
       <c r="U25" t="n">
         <v>2340.164055357248</v>
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1040.831578335702</v>
+        <v>1207.198262931286</v>
       </c>
       <c r="C26" t="n">
-        <v>1040.831578335702</v>
+        <v>769.055790114709</v>
       </c>
       <c r="D26" t="n">
-        <v>1040.831578335702</v>
+        <v>769.055790114709</v>
       </c>
       <c r="E26" t="n">
-        <v>1040.831578335702</v>
+        <v>769.055790114709</v>
       </c>
       <c r="F26" t="n">
-        <v>612.9641487449103</v>
+        <v>341.1883605239167</v>
       </c>
       <c r="G26" t="n">
-        <v>213.4614574243874</v>
+        <v>341.1883605239167</v>
       </c>
       <c r="H26" t="n">
-        <v>71.46680906782727</v>
+        <v>71.46680906782714</v>
       </c>
       <c r="I26" t="n">
-        <v>142.6667593190079</v>
+        <v>142.6667593190078</v>
       </c>
       <c r="J26" t="n">
-        <v>735.5682220153711</v>
+        <v>735.5682220153709</v>
       </c>
       <c r="K26" t="n">
-        <v>971.8398723945921</v>
+        <v>971.8398723945919</v>
       </c>
       <c r="L26" t="n">
-        <v>1291.045739431697</v>
+        <v>1264.955747258493</v>
       </c>
       <c r="M26" t="n">
-        <v>2175.447501646059</v>
+        <v>1591.10363542728</v>
       </c>
       <c r="N26" t="n">
-        <v>2506.872803622537</v>
+        <v>1922.528937403757</v>
       </c>
       <c r="O26" t="n">
-        <v>2819.828318163829</v>
+        <v>2235.48445194505</v>
       </c>
       <c r="P26" t="n">
-        <v>3086.928609343098</v>
+        <v>2540.429823384497</v>
       </c>
       <c r="Q26" t="n">
-        <v>3287.509804354166</v>
+        <v>3287.50980435416</v>
       </c>
       <c r="R26" t="n">
-        <v>3573.340453391363</v>
+        <v>3573.340453391357</v>
       </c>
       <c r="S26" t="n">
-        <v>3532.87408360616</v>
+        <v>3532.874083606154</v>
       </c>
       <c r="T26" t="n">
-        <v>3321.102832075273</v>
+        <v>3321.102832075267</v>
       </c>
       <c r="U26" t="n">
-        <v>3062.032140596787</v>
+        <v>3228.398825192369</v>
       </c>
       <c r="V26" t="n">
-        <v>2699.415190530613</v>
+        <v>2865.781875126196</v>
       </c>
       <c r="W26" t="n">
-        <v>2294.559735941646</v>
+        <v>2460.926420537229</v>
       </c>
       <c r="X26" t="n">
-        <v>1875.417272520957</v>
+        <v>2041.78395711654</v>
       </c>
       <c r="Y26" t="n">
-        <v>1467.13114882061</v>
+        <v>1633.497833416193</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2439.260642224162</v>
+        <v>566.8315625852632</v>
       </c>
       <c r="C27" t="n">
-        <v>2332.804181060804</v>
+        <v>460.3751014219055</v>
       </c>
       <c r="D27" t="n">
-        <v>2237.713892207357</v>
+        <v>365.2848125684587</v>
       </c>
       <c r="E27" t="n">
-        <v>2143.593477534311</v>
+        <v>271.1643978954124</v>
       </c>
       <c r="F27" t="n">
-        <v>2060.209639150473</v>
+        <v>187.780559511574</v>
       </c>
       <c r="G27" t="n">
-        <v>1975.83853874013</v>
+        <v>103.4094591012309</v>
       </c>
       <c r="H27" t="n">
-        <v>1943.895888706726</v>
+        <v>71.46680906782714</v>
       </c>
       <c r="I27" t="n">
-        <v>1978.112624878202</v>
+        <v>105.6835452393031</v>
       </c>
       <c r="J27" t="n">
-        <v>2072.00596422467</v>
+        <v>199.5768845857702</v>
       </c>
       <c r="K27" t="n">
-        <v>2232.48463627884</v>
+        <v>360.0555566399404</v>
       </c>
       <c r="L27" t="n">
-        <v>2448.268015153862</v>
+        <v>575.8389355149628</v>
       </c>
       <c r="M27" t="n">
-        <v>2700.07704045656</v>
+        <v>827.6479608176602</v>
       </c>
       <c r="N27" t="n">
-        <v>2958.550701377879</v>
+        <v>1086.12162173898</v>
       </c>
       <c r="O27" t="n">
-        <v>3195.00360419241</v>
+        <v>1322.574524553511</v>
       </c>
       <c r="P27" t="n">
-        <v>3384.777904757216</v>
+        <v>1512.348825118317</v>
       </c>
       <c r="Q27" t="n">
-        <v>3511.63699896545</v>
+        <v>1639.207919326551</v>
       </c>
       <c r="R27" t="n">
-        <v>3573.340453391363</v>
+        <v>1700.911373752464</v>
       </c>
       <c r="S27" t="n">
-        <v>3528.719422791097</v>
+        <v>1656.290343152198</v>
       </c>
       <c r="T27" t="n">
-        <v>3402.62786766675</v>
+        <v>1530.198788027851</v>
       </c>
       <c r="U27" t="n">
-        <v>3226.358030490631</v>
+        <v>1353.928950851732</v>
       </c>
       <c r="V27" t="n">
-        <v>3027.24051255263</v>
+        <v>1154.811432913732</v>
       </c>
       <c r="W27" t="n">
-        <v>2841.917758285824</v>
+        <v>969.4886786469256</v>
       </c>
       <c r="X27" t="n">
-        <v>2687.050322524704</v>
+        <v>814.6212428858056</v>
       </c>
       <c r="Y27" t="n">
-        <v>2560.564543303925</v>
+        <v>688.1354636650264</v>
       </c>
     </row>
     <row r="28">
@@ -6363,58 +6363,58 @@
         <v>1116.552098742504</v>
       </c>
       <c r="C28" t="n">
-        <v>943.9903872257288</v>
+        <v>943.9903872257286</v>
       </c>
       <c r="D28" t="n">
-        <v>778.1123944272515</v>
+        <v>778.1123944272513</v>
       </c>
       <c r="E28" t="n">
-        <v>608.3543906779887</v>
+        <v>608.3543906779886</v>
       </c>
       <c r="F28" t="n">
-        <v>431.6473366397449</v>
+        <v>431.6473366397448</v>
       </c>
       <c r="G28" t="n">
-        <v>266.9061562522633</v>
+        <v>266.9061562522632</v>
       </c>
       <c r="H28" t="n">
-        <v>134.5620956315792</v>
+        <v>134.5620956315791</v>
       </c>
       <c r="I28" t="n">
-        <v>71.46680906782727</v>
+        <v>71.46680906782714</v>
       </c>
       <c r="J28" t="n">
-        <v>130.3724727700104</v>
+        <v>216.9521579347001</v>
       </c>
       <c r="K28" t="n">
-        <v>231.3483474046373</v>
+        <v>588.5107130733938</v>
       </c>
       <c r="L28" t="n">
-        <v>773.4290307908963</v>
+        <v>1130.591396459653</v>
       </c>
       <c r="M28" t="n">
-        <v>1363.517290310339</v>
+        <v>1261.195788798182</v>
       </c>
       <c r="N28" t="n">
-        <v>1933.275005271873</v>
+        <v>1765.08223040754</v>
       </c>
       <c r="O28" t="n">
-        <v>2470.710135845416</v>
+        <v>2302.517360981084</v>
       </c>
       <c r="P28" t="n">
-        <v>2918.986085993442</v>
+        <v>2750.793311129109</v>
       </c>
       <c r="Q28" t="n">
-        <v>2988.753357224097</v>
+        <v>2988.753357224096</v>
       </c>
       <c r="R28" t="n">
-        <v>3005.224449900865</v>
+        <v>3005.224449900864</v>
       </c>
       <c r="S28" t="n">
         <v>2860.797911405099</v>
       </c>
       <c r="T28" t="n">
-        <v>2618.550687308506</v>
+        <v>2618.550687308505</v>
       </c>
       <c r="U28" t="n">
         <v>2340.164055357248</v>
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2038.243011102492</v>
+        <v>2206.66393246298</v>
       </c>
       <c r="C29" t="n">
-        <v>2038.243011102492</v>
+        <v>1768.521459646403</v>
       </c>
       <c r="D29" t="n">
-        <v>1602.333226276937</v>
+        <v>1332.611674820847</v>
       </c>
       <c r="E29" t="n">
-        <v>1168.558481435232</v>
+        <v>898.8369299791423</v>
       </c>
       <c r="F29" t="n">
-        <v>740.6910518444397</v>
+        <v>470.96950038835</v>
       </c>
       <c r="G29" t="n">
-        <v>341.1883605239169</v>
+        <v>71.46680906782714</v>
       </c>
       <c r="H29" t="n">
-        <v>71.46680906782727</v>
+        <v>71.46680906782714</v>
       </c>
       <c r="I29" t="n">
-        <v>142.6667593190079</v>
+        <v>142.6667593190078</v>
       </c>
       <c r="J29" t="n">
-        <v>735.5682220153711</v>
+        <v>300.313534562453</v>
       </c>
       <c r="K29" t="n">
-        <v>1009.684952654776</v>
+        <v>1009.684952654771</v>
       </c>
       <c r="L29" t="n">
-        <v>1302.800827518677</v>
+        <v>1302.800827518671</v>
       </c>
       <c r="M29" t="n">
-        <v>1628.948715687464</v>
+        <v>1628.948715687458</v>
       </c>
       <c r="N29" t="n">
-        <v>1960.374017663942</v>
+        <v>1960.374017663936</v>
       </c>
       <c r="O29" t="n">
-        <v>2273.329532205234</v>
+        <v>2273.329532205229</v>
       </c>
       <c r="P29" t="n">
-        <v>2540.429823384503</v>
+        <v>2540.429823384497</v>
       </c>
       <c r="Q29" t="n">
-        <v>3287.509804354166</v>
+        <v>3287.50980435416</v>
       </c>
       <c r="R29" t="n">
-        <v>3573.340453391363</v>
+        <v>3573.340453391357</v>
       </c>
       <c r="S29" t="n">
-        <v>3532.87408360616</v>
+        <v>3573.340453391357</v>
       </c>
       <c r="T29" t="n">
-        <v>3321.102832075273</v>
+        <v>3573.340453391357</v>
       </c>
       <c r="U29" t="n">
-        <v>3062.032140596787</v>
+        <v>3460.392090068923</v>
       </c>
       <c r="V29" t="n">
-        <v>2862.240929112148</v>
+        <v>3460.392090068923</v>
       </c>
       <c r="W29" t="n">
-        <v>2457.385474523182</v>
+        <v>3460.392090068923</v>
       </c>
       <c r="X29" t="n">
-        <v>2038.243011102492</v>
+        <v>3041.249626648234</v>
       </c>
       <c r="Y29" t="n">
-        <v>2038.243011102492</v>
+        <v>2632.963502947887</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2439.260642224162</v>
+        <v>566.8315625852632</v>
       </c>
       <c r="C30" t="n">
-        <v>2332.804181060804</v>
+        <v>460.3751014219055</v>
       </c>
       <c r="D30" t="n">
-        <v>2237.713892207357</v>
+        <v>365.2848125684587</v>
       </c>
       <c r="E30" t="n">
-        <v>2143.593477534311</v>
+        <v>271.1643978954124</v>
       </c>
       <c r="F30" t="n">
-        <v>2060.209639150473</v>
+        <v>187.780559511574</v>
       </c>
       <c r="G30" t="n">
-        <v>1975.83853874013</v>
+        <v>103.4094591012309</v>
       </c>
       <c r="H30" t="n">
-        <v>1943.895888706726</v>
+        <v>71.46680906782714</v>
       </c>
       <c r="I30" t="n">
-        <v>1978.112624878203</v>
+        <v>105.6835452393031</v>
       </c>
       <c r="J30" t="n">
-        <v>2072.00596422467</v>
+        <v>199.5768845857702</v>
       </c>
       <c r="K30" t="n">
-        <v>2232.48463627884</v>
+        <v>360.0555566399404</v>
       </c>
       <c r="L30" t="n">
-        <v>2448.268015153862</v>
+        <v>575.8389355149628</v>
       </c>
       <c r="M30" t="n">
-        <v>2700.07704045656</v>
+        <v>827.6479608176602</v>
       </c>
       <c r="N30" t="n">
-        <v>2958.550701377879</v>
+        <v>1086.12162173898</v>
       </c>
       <c r="O30" t="n">
-        <v>3195.00360419241</v>
+        <v>1322.574524553511</v>
       </c>
       <c r="P30" t="n">
-        <v>3384.777904757216</v>
+        <v>1512.348825118317</v>
       </c>
       <c r="Q30" t="n">
-        <v>3511.63699896545</v>
+        <v>1639.207919326551</v>
       </c>
       <c r="R30" t="n">
-        <v>3573.340453391363</v>
+        <v>1700.911373752464</v>
       </c>
       <c r="S30" t="n">
-        <v>3528.719422791097</v>
+        <v>1656.290343152198</v>
       </c>
       <c r="T30" t="n">
-        <v>3402.62786766675</v>
+        <v>1530.198788027851</v>
       </c>
       <c r="U30" t="n">
-        <v>3226.358030490631</v>
+        <v>1353.928950851732</v>
       </c>
       <c r="V30" t="n">
-        <v>3027.24051255263</v>
+        <v>1154.811432913732</v>
       </c>
       <c r="W30" t="n">
-        <v>2841.917758285824</v>
+        <v>969.4886786469256</v>
       </c>
       <c r="X30" t="n">
-        <v>2687.050322524704</v>
+        <v>814.6212428858056</v>
       </c>
       <c r="Y30" t="n">
-        <v>2560.564543303925</v>
+        <v>688.1354636650264</v>
       </c>
     </row>
     <row r="31">
@@ -6600,58 +6600,58 @@
         <v>1116.552098742504</v>
       </c>
       <c r="C31" t="n">
-        <v>943.9903872257288</v>
+        <v>943.9903872257286</v>
       </c>
       <c r="D31" t="n">
-        <v>778.1123944272515</v>
+        <v>778.1123944272513</v>
       </c>
       <c r="E31" t="n">
-        <v>608.3543906779887</v>
+        <v>608.3543906779886</v>
       </c>
       <c r="F31" t="n">
-        <v>431.6473366397449</v>
+        <v>431.6473366397448</v>
       </c>
       <c r="G31" t="n">
-        <v>266.9061562522633</v>
+        <v>266.9061562522632</v>
       </c>
       <c r="H31" t="n">
-        <v>134.5620956315792</v>
+        <v>134.5620956315791</v>
       </c>
       <c r="I31" t="n">
-        <v>71.46680906782727</v>
+        <v>71.46680906782714</v>
       </c>
       <c r="J31" t="n">
-        <v>130.3724727700104</v>
+        <v>216.9521579347001</v>
       </c>
       <c r="K31" t="n">
-        <v>231.3483474046373</v>
+        <v>313.7522585022583</v>
       </c>
       <c r="L31" t="n">
-        <v>773.4290307908963</v>
+        <v>855.8329418885172</v>
       </c>
       <c r="M31" t="n">
-        <v>1363.517290310339</v>
+        <v>1445.92120140796</v>
       </c>
       <c r="N31" t="n">
-        <v>1933.275005271873</v>
+        <v>2015.678916369494</v>
       </c>
       <c r="O31" t="n">
-        <v>2470.710135845416</v>
+        <v>2553.114046943037</v>
       </c>
       <c r="P31" t="n">
-        <v>2918.986085993442</v>
+        <v>2750.793311129109</v>
       </c>
       <c r="Q31" t="n">
-        <v>2988.753357224097</v>
+        <v>2988.753357224096</v>
       </c>
       <c r="R31" t="n">
-        <v>3005.224449900865</v>
+        <v>3005.224449900864</v>
       </c>
       <c r="S31" t="n">
         <v>2860.797911405099</v>
       </c>
       <c r="T31" t="n">
-        <v>2618.550687308506</v>
+        <v>2618.550687308505</v>
       </c>
       <c r="U31" t="n">
         <v>2340.164055357248</v>
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2048.518054328277</v>
+        <v>2063.972273418308</v>
       </c>
       <c r="C32" t="n">
-        <v>1610.3755815117</v>
+        <v>1625.829800601731</v>
       </c>
       <c r="D32" t="n">
-        <v>1174.465796686145</v>
+        <v>1189.920015776176</v>
       </c>
       <c r="E32" t="n">
-        <v>740.6910518444397</v>
+        <v>756.1452709344708</v>
       </c>
       <c r="F32" t="n">
-        <v>740.6910518444397</v>
+        <v>328.2778413436785</v>
       </c>
       <c r="G32" t="n">
-        <v>341.1883605239169</v>
+        <v>71.46680906782714</v>
       </c>
       <c r="H32" t="n">
-        <v>71.46680906782727</v>
+        <v>71.46680906782714</v>
       </c>
       <c r="I32" t="n">
-        <v>142.6667593190079</v>
+        <v>142.6667593190078</v>
       </c>
       <c r="J32" t="n">
-        <v>300.3135345624531</v>
+        <v>735.5682220153709</v>
       </c>
       <c r="K32" t="n">
-        <v>536.5851849416741</v>
+        <v>971.8398723945919</v>
       </c>
       <c r="L32" t="n">
-        <v>907.2233439468686</v>
+        <v>1264.955747258493</v>
       </c>
       <c r="M32" t="n">
-        <v>1791.625106161231</v>
+        <v>1628.948715687458</v>
       </c>
       <c r="N32" t="n">
-        <v>2676.026868375593</v>
+        <v>1960.374017663936</v>
       </c>
       <c r="O32" t="n">
-        <v>2988.982382916886</v>
+        <v>2273.329532205229</v>
       </c>
       <c r="P32" t="n">
-        <v>3256.082674096155</v>
+        <v>2540.429823384497</v>
       </c>
       <c r="Q32" t="n">
-        <v>3456.663869107223</v>
+        <v>3287.50980435416</v>
       </c>
       <c r="R32" t="n">
-        <v>3573.340453391363</v>
+        <v>3573.340453391357</v>
       </c>
       <c r="S32" t="n">
-        <v>3532.87408360616</v>
+        <v>3573.340453391357</v>
       </c>
       <c r="T32" t="n">
-        <v>3321.102832075273</v>
+        <v>3573.340453391357</v>
       </c>
       <c r="U32" t="n">
-        <v>3238.563591515486</v>
+        <v>3314.269761912871</v>
       </c>
       <c r="V32" t="n">
-        <v>2875.946641449313</v>
+        <v>3314.269761912871</v>
       </c>
       <c r="W32" t="n">
-        <v>2875.946641449313</v>
+        <v>2909.414307323905</v>
       </c>
       <c r="X32" t="n">
-        <v>2456.804178028623</v>
+        <v>2490.271843903216</v>
       </c>
       <c r="Y32" t="n">
-        <v>2048.518054328277</v>
+        <v>2490.271843903216</v>
       </c>
     </row>
     <row r="33">
@@ -6755,43 +6755,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>566.8315625852633</v>
+        <v>566.8315625852632</v>
       </c>
       <c r="C33" t="n">
-        <v>460.3751014219056</v>
+        <v>460.3751014219055</v>
       </c>
       <c r="D33" t="n">
-        <v>365.2848125684588</v>
+        <v>365.2848125684587</v>
       </c>
       <c r="E33" t="n">
-        <v>271.1643978954125</v>
+        <v>271.1643978954124</v>
       </c>
       <c r="F33" t="n">
-        <v>187.7805595115742</v>
+        <v>187.780559511574</v>
       </c>
       <c r="G33" t="n">
-        <v>103.409459101231</v>
+        <v>103.4094591012309</v>
       </c>
       <c r="H33" t="n">
-        <v>71.46680906782727</v>
+        <v>71.46680906782714</v>
       </c>
       <c r="I33" t="n">
-        <v>105.6835452393034</v>
+        <v>105.6835452393031</v>
       </c>
       <c r="J33" t="n">
-        <v>199.5768845857706</v>
+        <v>199.5768845857702</v>
       </c>
       <c r="K33" t="n">
-        <v>360.0555566399408</v>
+        <v>360.0555566399404</v>
       </c>
       <c r="L33" t="n">
-        <v>575.8389355149632</v>
+        <v>575.8389355149628</v>
       </c>
       <c r="M33" t="n">
-        <v>827.6479608176605</v>
+        <v>827.6479608176602</v>
       </c>
       <c r="N33" t="n">
-        <v>1086.121621738981</v>
+        <v>1086.12162173898</v>
       </c>
       <c r="O33" t="n">
         <v>1322.574524553511</v>
@@ -6800,13 +6800,13 @@
         <v>1512.348825118317</v>
       </c>
       <c r="Q33" t="n">
-        <v>1639.207919326552</v>
+        <v>1639.207919326551</v>
       </c>
       <c r="R33" t="n">
         <v>1700.911373752464</v>
       </c>
       <c r="S33" t="n">
-        <v>1656.290343152199</v>
+        <v>1656.290343152198</v>
       </c>
       <c r="T33" t="n">
         <v>1530.198788027851</v>
@@ -6818,13 +6818,13 @@
         <v>1154.811432913732</v>
       </c>
       <c r="W33" t="n">
-        <v>969.4886786469258</v>
+        <v>969.4886786469256</v>
       </c>
       <c r="X33" t="n">
-        <v>814.6212428858057</v>
+        <v>814.6212428858056</v>
       </c>
       <c r="Y33" t="n">
-        <v>688.1354636650265</v>
+        <v>688.1354636650264</v>
       </c>
     </row>
     <row r="34">
@@ -6837,58 +6837,58 @@
         <v>1116.552098742504</v>
       </c>
       <c r="C34" t="n">
-        <v>943.9903872257288</v>
+        <v>943.9903872257286</v>
       </c>
       <c r="D34" t="n">
-        <v>778.1123944272515</v>
+        <v>778.1123944272513</v>
       </c>
       <c r="E34" t="n">
-        <v>608.3543906779887</v>
+        <v>608.3543906779886</v>
       </c>
       <c r="F34" t="n">
-        <v>431.6473366397449</v>
+        <v>431.6473366397448</v>
       </c>
       <c r="G34" t="n">
-        <v>266.9061562522633</v>
+        <v>266.9061562522632</v>
       </c>
       <c r="H34" t="n">
-        <v>134.5620956315792</v>
+        <v>134.5620956315791</v>
       </c>
       <c r="I34" t="n">
-        <v>71.46680906782727</v>
+        <v>71.46680906782714</v>
       </c>
       <c r="J34" t="n">
-        <v>130.3724727700104</v>
+        <v>130.3724727700103</v>
       </c>
       <c r="K34" t="n">
-        <v>231.3483474046373</v>
+        <v>231.3483474046364</v>
       </c>
       <c r="L34" t="n">
-        <v>773.4290307908963</v>
+        <v>773.4290307908954</v>
       </c>
       <c r="M34" t="n">
-        <v>1363.517290310339</v>
+        <v>1363.517290310338</v>
       </c>
       <c r="N34" t="n">
-        <v>1933.275005271873</v>
+        <v>1933.275005271872</v>
       </c>
       <c r="O34" t="n">
-        <v>2470.710135845416</v>
+        <v>2470.710135845415</v>
       </c>
       <c r="P34" t="n">
-        <v>2918.986085993442</v>
+        <v>2918.98608599344</v>
       </c>
       <c r="Q34" t="n">
-        <v>2988.753357224097</v>
+        <v>2988.753357224096</v>
       </c>
       <c r="R34" t="n">
-        <v>3005.224449900865</v>
+        <v>3005.224449900864</v>
       </c>
       <c r="S34" t="n">
         <v>2860.797911405099</v>
       </c>
       <c r="T34" t="n">
-        <v>2618.550687308506</v>
+        <v>2618.550687308505</v>
       </c>
       <c r="U34" t="n">
         <v>2340.164055357248</v>
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1688.947492710957</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C35" t="n">
-        <v>1250.805019894381</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D35" t="n">
-        <v>814.8952350688251</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E35" t="n">
-        <v>381.1204902271202</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F35" t="n">
         <v>47.20655154895474</v>
@@ -6964,25 +6964,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S35" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T35" t="n">
-        <v>2108.089956131646</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U35" t="n">
-        <v>2108.089956131646</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="V35" t="n">
-        <v>2108.089956131646</v>
+        <v>2191.18710732393</v>
       </c>
       <c r="W35" t="n">
-        <v>2108.089956131646</v>
+        <v>2191.18710732393</v>
       </c>
       <c r="X35" t="n">
-        <v>1688.947492710957</v>
+        <v>2191.18710732393</v>
       </c>
       <c r="Y35" t="n">
-        <v>1688.947492710957</v>
+        <v>1782.900983623584</v>
       </c>
     </row>
     <row r="36">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>616.081764785142</v>
+        <v>663.4738450083642</v>
       </c>
       <c r="C37" t="n">
-        <v>443.520053268367</v>
+        <v>663.4738450083642</v>
       </c>
       <c r="D37" t="n">
-        <v>443.520053268367</v>
+        <v>497.5958522098869</v>
       </c>
       <c r="E37" t="n">
-        <v>273.7620495191042</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="F37" t="n">
-        <v>97.05499548086041</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G37" t="n">
-        <v>47.20655154895474</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H37" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I37" t="n">
         <v>47.20655154895474</v>
@@ -7101,19 +7101,19 @@
         <v>202.912315818696</v>
       </c>
       <c r="L37" t="n">
-        <v>481.9462364092378</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M37" t="n">
-        <v>1066.127311827553</v>
+        <v>897.9345369632209</v>
       </c>
       <c r="N37" t="n">
-        <v>1635.885026789087</v>
+        <v>1467.692251924755</v>
       </c>
       <c r="O37" t="n">
-        <v>2173.32015736263</v>
+        <v>2005.127382498298</v>
       </c>
       <c r="P37" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q37" t="n">
         <v>2343.856484770969</v>
@@ -7122,25 +7122,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S37" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T37" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U37" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V37" t="n">
-        <v>1552.738213270317</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W37" t="n">
-        <v>1280.711808856609</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X37" t="n">
-        <v>1035.320054190021</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="Y37" t="n">
-        <v>807.9003835041292</v>
+        <v>663.4738450083642</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2319.861207662534</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="C38" t="n">
-        <v>1881.718734845957</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="D38" t="n">
-        <v>1445.808950020402</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="E38" t="n">
-        <v>1144.298223916359</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="F38" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G38" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H38" t="n">
         <v>47.20655154895474</v>
@@ -7201,25 +7201,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S38" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T38" t="n">
-        <v>2319.861207662534</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U38" t="n">
-        <v>2319.861207662534</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="V38" t="n">
-        <v>2319.861207662534</v>
+        <v>1526.86868437219</v>
       </c>
       <c r="W38" t="n">
-        <v>2319.861207662534</v>
+        <v>1122.013229783223</v>
       </c>
       <c r="X38" t="n">
-        <v>2319.861207662534</v>
+        <v>702.8707663625338</v>
       </c>
       <c r="Y38" t="n">
-        <v>2319.861207662534</v>
+        <v>294.5846426621872</v>
       </c>
     </row>
     <row r="39">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>616.081764785142</v>
+        <v>1092.291841223631</v>
       </c>
       <c r="C40" t="n">
-        <v>443.520053268367</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D40" t="n">
-        <v>393.6716093364613</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E40" t="n">
-        <v>223.9136055871985</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F40" t="n">
-        <v>47.20655154895474</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G40" t="n">
-        <v>47.20655154895474</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H40" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I40" t="n">
         <v>47.20655154895474</v>
@@ -7335,22 +7335,22 @@
         <v>106.1122152511379</v>
       </c>
       <c r="K40" t="n">
-        <v>320.0013704257355</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L40" t="n">
-        <v>862.0820538119945</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M40" t="n">
-        <v>992.6864461505238</v>
+        <v>1329.17407462327</v>
       </c>
       <c r="N40" t="n">
-        <v>1120.185357954413</v>
+        <v>1708.047382044527</v>
       </c>
       <c r="O40" t="n">
-        <v>1657.620488527957</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P40" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q40" t="n">
         <v>2343.856484770969</v>
@@ -7359,25 +7359,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S40" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T40" t="n">
-        <v>2118.080353351143</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="U40" t="n">
-        <v>1839.693721399886</v>
+        <v>1937.514407000715</v>
       </c>
       <c r="V40" t="n">
-        <v>1552.738213270317</v>
+        <v>1650.558898871145</v>
       </c>
       <c r="W40" t="n">
-        <v>1280.711808856609</v>
+        <v>1378.532494457437</v>
       </c>
       <c r="X40" t="n">
-        <v>1035.320054190021</v>
+        <v>1378.532494457437</v>
       </c>
       <c r="Y40" t="n">
-        <v>807.9003835041292</v>
+        <v>1284.110459942618</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1934.028006962829</v>
+        <v>1180.705317421392</v>
       </c>
       <c r="C41" t="n">
-        <v>1495.885534146253</v>
+        <v>1180.705317421392</v>
       </c>
       <c r="D41" t="n">
-        <v>1059.975749320697</v>
+        <v>744.7955325958366</v>
       </c>
       <c r="E41" t="n">
-        <v>626.2010044789922</v>
+        <v>744.7955325958366</v>
       </c>
       <c r="F41" t="n">
-        <v>198.3335748882</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G41" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H41" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J41" t="n">
         <v>276.0532770435808</v>
@@ -7438,25 +7438,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S41" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T41" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U41" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V41" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W41" t="n">
-        <v>2360.327577447737</v>
+        <v>1444.163810064194</v>
       </c>
       <c r="X41" t="n">
-        <v>2360.327577447737</v>
+        <v>1444.163810064194</v>
       </c>
       <c r="Y41" t="n">
-        <v>2360.327577447737</v>
+        <v>1180.705317421392</v>
       </c>
     </row>
     <row r="42">
@@ -7472,13 +7472,13 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D42" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E42" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F42" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G42" t="n">
         <v>79.1492015823585</v>
@@ -7545,49 +7545,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>616.081764785142</v>
+        <v>915.5847871853875</v>
       </c>
       <c r="C43" t="n">
-        <v>443.520053268367</v>
+        <v>743.0230756686125</v>
       </c>
       <c r="D43" t="n">
-        <v>393.6716093364613</v>
+        <v>577.1450828701352</v>
       </c>
       <c r="E43" t="n">
-        <v>223.9136055871985</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="F43" t="n">
-        <v>47.20655154895474</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G43" t="n">
-        <v>47.20655154895474</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H43" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I43" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="J43" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K43" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L43" t="n">
-        <v>481.9462364092378</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M43" t="n">
-        <v>1066.127311827553</v>
+        <v>818.7256495113488</v>
       </c>
       <c r="N43" t="n">
-        <v>1635.885026789087</v>
+        <v>1120.185357954413</v>
       </c>
       <c r="O43" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P43" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q43" t="n">
         <v>2343.856484770969</v>
@@ -7596,25 +7596,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S43" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T43" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U43" t="n">
-        <v>1839.693721399886</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V43" t="n">
-        <v>1552.738213270317</v>
+        <v>1852.241235670562</v>
       </c>
       <c r="W43" t="n">
-        <v>1280.711808856609</v>
+        <v>1580.214831256854</v>
       </c>
       <c r="X43" t="n">
-        <v>1035.320054190021</v>
+        <v>1334.823076590267</v>
       </c>
       <c r="Y43" t="n">
-        <v>807.9003835041292</v>
+        <v>1107.403405904375</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>882.6190276950331</v>
+        <v>921.2588091910869</v>
       </c>
       <c r="C44" t="n">
-        <v>882.6190276950331</v>
+        <v>483.1163363745102</v>
       </c>
       <c r="D44" t="n">
-        <v>446.7092428694776</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="E44" t="n">
-        <v>446.7092428694776</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="F44" t="n">
-        <v>446.7092428694776</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G44" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001353</v>
+        <v>118.406501800135</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435803</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228012</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867018</v>
       </c>
       <c r="M44" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N44" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O44" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P44" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q44" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R44" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S44" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T44" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U44" t="n">
-        <v>2079.821671946461</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V44" t="n">
-        <v>1717.204721880288</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="W44" t="n">
-        <v>1717.204721880288</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="X44" t="n">
-        <v>1717.204721880288</v>
+        <v>1688.947492710956</v>
       </c>
       <c r="Y44" t="n">
-        <v>1308.918598179941</v>
+        <v>1347.558379675995</v>
       </c>
     </row>
     <row r="45">
@@ -7706,25 +7706,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C45" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D45" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E45" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F45" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G45" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H45" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I45" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J45" t="n">
         <v>175.316627066898</v>
@@ -7733,10 +7733,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L45" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M45" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N45" t="n">
         <v>1061.861364220108</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>616.081764785142</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="C46" t="n">
-        <v>443.520053268367</v>
+        <v>299.0935147726011</v>
       </c>
       <c r="D46" t="n">
-        <v>277.6420604698897</v>
+        <v>299.0935147726011</v>
       </c>
       <c r="E46" t="n">
-        <v>107.8840567206269</v>
+        <v>287.0088921509505</v>
       </c>
       <c r="F46" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="G46" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H46" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J46" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K46" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L46" t="n">
-        <v>1106.33113894078</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M46" t="n">
-        <v>1412.355695376305</v>
+        <v>718.6204178572102</v>
       </c>
       <c r="N46" t="n">
-        <v>1539.854607180195</v>
+        <v>1288.378132818744</v>
       </c>
       <c r="O46" t="n">
-        <v>1657.620488527957</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P46" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q46" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R46" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S46" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T46" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U46" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V46" t="n">
-        <v>1552.738213270317</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W46" t="n">
-        <v>1280.711808856609</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X46" t="n">
-        <v>1035.320054190021</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y46" t="n">
-        <v>807.9003835041292</v>
+        <v>663.4738450083632</v>
       </c>
     </row>
   </sheetData>
@@ -8853,22 +8853,22 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>156.7304232042867</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N13" t="n">
-        <v>118.2717723303424</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9087,25 +9087,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>105.0002374943217</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N16" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>70.05088382580971</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9321,19 +9321,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>6.52570510370299</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>423.9083325512944</v>
@@ -9342,7 +9342,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821538</v>
+        <v>10.62967161639972</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>357.5427697202098</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512944</v>
+        <v>158.2045317475397</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9655,7 +9655,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>38.2273537981664</v>
+        <v>38.22735379816049</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157522</v>
@@ -9795,16 +9795,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>4.217953603098948</v>
       </c>
       <c r="L25" t="n">
-        <v>355.8975842583693</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
@@ -9816,7 +9816,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9880,10 +9880,10 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>26.35352744768079</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>563.8928020662377</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9892,10 +9892,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>38.22735379816049</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697543</v>
@@ -10032,19 +10032,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>4.217953603099744</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>446.7260637956006</v>
+        <v>380.1894240459278</v>
       </c>
       <c r="O28" t="n">
         <v>423.9083325512944</v>
@@ -10053,7 +10053,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>38.22735379816606</v>
+        <v>477.8785532455522</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10269,10 +10269,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>4.217953603099744</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>422.4342240080415</v>
@@ -10287,10 +10287,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>351.0170646165068</v>
+        <v>97.88909899837154</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10348,19 +10348,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>78.30533751645839</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>563.8928020662376</v>
+        <v>38.22735379816027</v>
       </c>
       <c r="N32" t="n">
-        <v>558.5620810483688</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10369,10 +10369,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10509,7 +10509,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>4.217953603099744</v>
+        <v>4.217953603098948</v>
       </c>
       <c r="L34" t="n">
         <v>422.4342240080415</v>
@@ -10749,10 +10749,10 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>156.7304232042867</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>458.1582657371571</v>
+        <v>444.9969971592904</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
@@ -10764,7 +10764,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10983,25 +10983,25 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>118.2717723303429</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>253.9135309266337</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>156.7304232042867</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>458.1582657371571</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>446.7260637956006</v>
+        <v>175.7179764032071</v>
       </c>
       <c r="O43" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>177.1920849464602</v>
+        <v>263.8716243249362</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23272,10 +23272,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23314,16 +23314,16 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>92.85505055045758</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>55.78178879988872</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>128.4475684644734</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>23.16896444162256</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23497,22 +23497,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>90.87967246293493</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23548,19 +23548,19 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T14" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>216.204162400268</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -23658,13 +23658,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>54.74153010489354</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,13 +23709,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>208.9655078771667</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>77.31763674526957</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
-        <v>8.708982326806506</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
@@ -23892,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>114.8692533779059</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>48.85018410292729</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
         <v>62.46433369811443</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23971,7 +23971,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>83.88014333065234</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -24025,13 +24025,13 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>125.6962628082176</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>81.529409043483</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>1.530837546249387</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24205,19 +24205,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>82.64554984053052</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>157.1934210027569</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>431.5506869772999</v>
@@ -24457,10 +24457,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
-        <v>126.4496340685341</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24499,7 +24499,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>164.7030177496328</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>144.6611048744915</v>
       </c>
       <c r="V29" t="n">
-        <v>161.19748119572</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24928,13 +24928,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>141.2647424542247</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
-        <v>174.7661364095127</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -25165,7 +25165,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>93.01395600350048</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>395.5076644073176</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>191.5417151429432</v>
       </c>
       <c r="W35" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>78.75373835364579</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>113.7438090910202</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>177.1322645779586</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>130.9413785502857</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T38" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>114.8692533779059</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,10 +25599,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>131.6676598093627</v>
       </c>
     </row>
     <row r="41">
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>245.8919113014648</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>143.3793547469694</v>
       </c>
     </row>
     <row r="42">
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>114.8692533779059</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,16 +25836,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>163.887499655306</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25867,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25879,7 +25879,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
         <v>267.0243359415286</v>
@@ -25918,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>18.84084420478911</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>66.2280405587311</v>
       </c>
     </row>
     <row r="45">
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>156.0966473163361</v>
       </c>
       <c r="F46" t="n">
-        <v>114.8692533779059</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>163.0937685836068</v>
@@ -26043,7 +26043,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>290423.0852463713</v>
+        <v>290423.0852463714</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>432310.9302601924</v>
+        <v>432310.9302601918</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>432310.9302601924</v>
+        <v>432310.9302601918</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>432310.9302601924</v>
+        <v>432310.9302601918</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>432310.9302601924</v>
+        <v>432310.9302601918</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>290423.0852463713</v>
+        <v>290423.0852463714</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>290423.0852463713</v>
+        <v>290423.0852463715</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>290423.0852463713</v>
+        <v>290423.0852463712</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>457961.5537785679</v>
+        <v>457961.5537785678</v>
       </c>
       <c r="C2" t="n">
-        <v>457961.5537785679</v>
+        <v>457961.5537785678</v>
       </c>
       <c r="D2" t="n">
         <v>457961.5537785679</v>
       </c>
       <c r="E2" t="n">
-        <v>275270.7497764303</v>
+        <v>275270.7497764304</v>
       </c>
       <c r="F2" t="n">
         <v>275270.7497764303</v>
       </c>
       <c r="G2" t="n">
-        <v>275270.7497764303</v>
+        <v>275270.7497764304</v>
       </c>
       <c r="H2" t="n">
         <v>275270.7497764303</v>
       </c>
       <c r="I2" t="n">
-        <v>370142.4386754648</v>
+        <v>370142.4386754644</v>
       </c>
       <c r="J2" t="n">
-        <v>370142.4386754647</v>
+        <v>370142.4386754644</v>
       </c>
       <c r="K2" t="n">
-        <v>370142.4386754647</v>
+        <v>370142.4386754644</v>
       </c>
       <c r="L2" t="n">
-        <v>370142.4386754647</v>
+        <v>370142.4386754644</v>
       </c>
       <c r="M2" t="n">
-        <v>275270.7497764304</v>
+        <v>275270.7497764303</v>
       </c>
       <c r="N2" t="n">
         <v>275270.7497764303</v>
       </c>
       <c r="O2" t="n">
-        <v>275270.7497764303</v>
+        <v>275270.7497764304</v>
       </c>
       <c r="P2" t="n">
         <v>275270.7497764304</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>80641.39924595125</v>
+        <v>80641.39924595084</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>71478.85321840756</v>
+        <v>71478.853218408</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="D4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="E4" t="n">
         <v>15620.10484543461</v>
@@ -26438,28 +26438,28 @@
         <v>15620.10484543461</v>
       </c>
       <c r="I4" t="n">
-        <v>62802.20033474411</v>
+        <v>62802.20033474389</v>
       </c>
       <c r="J4" t="n">
-        <v>62802.20033474409</v>
+        <v>62802.20033474389</v>
       </c>
       <c r="K4" t="n">
-        <v>62802.20033474408</v>
+        <v>62802.20033474388</v>
       </c>
       <c r="L4" t="n">
-        <v>62802.20033474409</v>
+        <v>62802.20033474387</v>
       </c>
       <c r="M4" t="n">
-        <v>15620.1048454346</v>
+        <v>15620.10484543461</v>
       </c>
       <c r="N4" t="n">
         <v>15620.10484543461</v>
       </c>
       <c r="O4" t="n">
+        <v>15620.10484543461</v>
+      </c>
+      <c r="P4" t="n">
         <v>15620.1048454346</v>
-      </c>
-      <c r="P4" t="n">
-        <v>15620.10484543461</v>
       </c>
     </row>
     <row r="5">
@@ -26478,10 +26478,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
+        <v>46051.08120963782</v>
+      </c>
+      <c r="F5" t="n">
         <v>46051.08120963781</v>
-      </c>
-      <c r="F5" t="n">
-        <v>46051.08120963782</v>
       </c>
       <c r="G5" t="n">
         <v>46051.08120963782</v>
@@ -26490,16 +26490,16 @@
         <v>46051.08120963782</v>
       </c>
       <c r="I5" t="n">
-        <v>64488.87692398094</v>
+        <v>64488.87692398085</v>
       </c>
       <c r="J5" t="n">
-        <v>64488.87692398094</v>
+        <v>64488.87692398085</v>
       </c>
       <c r="K5" t="n">
-        <v>64488.87692398094</v>
+        <v>64488.87692398085</v>
       </c>
       <c r="L5" t="n">
-        <v>64488.87692398094</v>
+        <v>64488.87692398085</v>
       </c>
       <c r="M5" t="n">
         <v>46051.08120963782</v>
@@ -26511,7 +26511,7 @@
         <v>46051.08120963782</v>
       </c>
       <c r="P5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>125603.2374667351</v>
+        <v>125571.3307492334</v>
       </c>
       <c r="C6" t="n">
-        <v>125603.2374667351</v>
+        <v>125571.3307492334</v>
       </c>
       <c r="D6" t="n">
-        <v>125603.2374667351</v>
+        <v>125571.3307492335</v>
       </c>
       <c r="E6" t="n">
-        <v>-337535.6372693178</v>
+        <v>-338089.5177125397</v>
       </c>
       <c r="F6" t="n">
-        <v>213599.5637213579</v>
+        <v>213045.6832781359</v>
       </c>
       <c r="G6" t="n">
-        <v>213599.5637213579</v>
+        <v>213045.683278136</v>
       </c>
       <c r="H6" t="n">
-        <v>213599.5637213578</v>
+        <v>213045.6832781359</v>
       </c>
       <c r="I6" t="n">
-        <v>162209.9621707886</v>
+        <v>161927.1436958498</v>
       </c>
       <c r="J6" t="n">
-        <v>242851.3614167397</v>
+        <v>242568.5429418006</v>
       </c>
       <c r="K6" t="n">
-        <v>242851.3614167397</v>
+        <v>242568.5429418006</v>
       </c>
       <c r="L6" t="n">
-        <v>242851.3614167397</v>
+        <v>242568.5429418007</v>
       </c>
       <c r="M6" t="n">
-        <v>142120.7105029504</v>
+        <v>141566.8300597279</v>
       </c>
       <c r="N6" t="n">
-        <v>213599.5637213578</v>
+        <v>213045.683278136</v>
       </c>
       <c r="O6" t="n">
-        <v>213599.5637213579</v>
+        <v>213045.683278136</v>
       </c>
       <c r="P6" t="n">
-        <v>213599.563721358</v>
+        <v>213045.683278136</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="F3" t="n">
         <v>466.7019280932212</v>
@@ -26779,7 +26779,7 @@
         <v>466.7019280932212</v>
       </c>
       <c r="P3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
     </row>
     <row r="4">
@@ -26798,10 +26798,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>590.0818943619342</v>
+      </c>
+      <c r="F4" t="n">
         <v>590.0818943619341</v>
-      </c>
-      <c r="F4" t="n">
-        <v>590.0818943619342</v>
       </c>
       <c r="G4" t="n">
         <v>590.0818943619342</v>
@@ -26810,16 +26810,16 @@
         <v>590.0818943619342</v>
       </c>
       <c r="I4" t="n">
-        <v>893.3351133478408</v>
+        <v>893.3351133478393</v>
       </c>
       <c r="J4" t="n">
-        <v>893.3351133478408</v>
+        <v>893.3351133478393</v>
       </c>
       <c r="K4" t="n">
-        <v>893.3351133478408</v>
+        <v>893.3351133478393</v>
       </c>
       <c r="L4" t="n">
-        <v>893.3351133478408</v>
+        <v>893.3351133478393</v>
       </c>
       <c r="M4" t="n">
         <v>590.0818943619342</v>
@@ -26831,7 +26831,7 @@
         <v>590.0818943619342</v>
       </c>
       <c r="P4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>303.2532189859065</v>
+        <v>303.253218985905</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>286.8286753760275</v>
+        <v>286.8286753760293</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31758,28 +31758,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I11" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -31791,7 +31791,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T11" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U11" t="n">
         <v>0.1500950924520911</v>
@@ -31834,13 +31834,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I12" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
@@ -31852,25 +31852,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S12" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T12" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U12" t="n">
         <v>0.06604272567356906</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I13" t="n">
         <v>25.30901603495698</v>
@@ -31922,7 +31922,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L13" t="n">
         <v>125.1220218366646</v>
@@ -31946,10 +31946,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S13" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U13" t="n">
         <v>0.04590510768130049</v>
@@ -32785,7 +32785,7 @@
         <v>9.695072128879936</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916773</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
         <v>94.84175691562339</v>
@@ -34225,7 +34225,7 @@
         <v>261.0845059811314</v>
       </c>
       <c r="O42" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P42" t="n">
         <v>191.6912126917233</v>
@@ -34365,28 +34365,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I44" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J44" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N44" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q44" t="n">
         <v>202.6072676879471</v>
@@ -34398,7 +34398,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T44" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U44" t="n">
         <v>0.1500950924520911</v>
@@ -34441,13 +34441,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H45" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I45" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K45" t="n">
         <v>162.0996687415861</v>
@@ -34459,25 +34459,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O45" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q45" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S45" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T45" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U45" t="n">
         <v>0.06604272567356906</v>
@@ -34517,10 +34517,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H46" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I46" t="n">
         <v>25.30901603495698</v>
@@ -34529,7 +34529,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L46" t="n">
         <v>125.1220218366646</v>
@@ -34553,10 +34553,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S46" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T46" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U46" t="n">
         <v>0.04590510768130049</v>
@@ -35406,19 +35406,19 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J11" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K12" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L12" t="n">
         <v>217.963008964669</v>
@@ -35570,25 +35570,25 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L13" t="n">
-        <v>547.5562458447062</v>
+        <v>281.8524450409513</v>
       </c>
       <c r="M13" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N13" t="n">
-        <v>247.0585519302308</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O13" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P13" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q13" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R13" t="n">
         <v>16.63746735027015</v>
@@ -35646,7 +35646,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J14" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K14" t="n">
         <v>238.6582327062838</v>
@@ -35655,7 +35655,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916782</v>
       </c>
       <c r="J15" t="n">
         <v>94.84175691562339</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K16" t="n">
-        <v>202.7781168554916</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L16" t="n">
         <v>547.556245844706</v>
       </c>
       <c r="M16" t="n">
-        <v>131.9236286247772</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N16" t="n">
-        <v>575.5128433954892</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O16" t="n">
-        <v>542.8637682561043</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P16" t="n">
-        <v>101.7869254320035</v>
+        <v>171.8378092578132</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R16" t="n">
         <v>16.63746735027015</v>
@@ -35889,7 +35889,7 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
         <v>329.4423112816032</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L19" t="n">
-        <v>125.1220218366646</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M19" t="n">
-        <v>138.4493337284802</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
-        <v>575.5128433954891</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O19" t="n">
         <v>542.8637682561043</v>
@@ -36062,7 +36062,7 @@
         <v>452.8039900485103</v>
       </c>
       <c r="Q19" t="n">
-        <v>240.36368292423</v>
+        <v>81.10166275847632</v>
       </c>
       <c r="R19" t="n">
         <v>16.63746735027015</v>
@@ -36120,7 +36120,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J20" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125712</v>
       </c>
       <c r="K20" t="n">
         <v>238.6582327062838</v>
@@ -36138,13 +36138,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R20" t="n">
-        <v>117.8551356405465</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L22" t="n">
-        <v>125.1220218366646</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M22" t="n">
-        <v>489.4663983449869</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N22" t="n">
-        <v>575.5128433954891</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O22" t="n">
-        <v>542.8637682561043</v>
+        <v>277.1599674523495</v>
       </c>
       <c r="P22" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R22" t="n">
         <v>16.63746735027015</v>
@@ -36363,7 +36363,7 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M23" t="n">
         <v>329.4423112816032</v>
@@ -36375,7 +36375,7 @@
         <v>316.1166813548409</v>
       </c>
       <c r="P23" t="n">
-        <v>308.02562771662</v>
+        <v>308.0256277166141</v>
       </c>
       <c r="Q23" t="n">
         <v>754.6262434036994</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916773</v>
+        <v>34.56235976916763</v>
       </c>
       <c r="J24" t="n">
         <v>94.84175691562339</v>
@@ -36515,16 +36515,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624559</v>
       </c>
       <c r="K25" t="n">
-        <v>375.3116718572664</v>
+        <v>101.9958329642689</v>
       </c>
       <c r="L25" t="n">
-        <v>481.0196060950339</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M25" t="n">
-        <v>131.9236286247772</v>
+        <v>596.0487469893359</v>
       </c>
       <c r="N25" t="n">
         <v>575.5128433954892</v>
@@ -36533,10 +36533,10 @@
         <v>542.8637682561043</v>
       </c>
       <c r="P25" t="n">
-        <v>452.8039900485105</v>
+        <v>452.8039900485101</v>
       </c>
       <c r="Q25" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R25" t="n">
         <v>16.63746735027015</v>
@@ -36600,22 +36600,22 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L26" t="n">
-        <v>322.4301687243481</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M26" t="n">
-        <v>893.3351133478409</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N26" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184536</v>
+        <v>308.0256277166141</v>
       </c>
       <c r="Q26" t="n">
-        <v>202.6072676879471</v>
+        <v>754.6262434036994</v>
       </c>
       <c r="R26" t="n">
         <v>288.7178273103004</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916787</v>
+        <v>34.56235976916763</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562382</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K27" t="n">
-        <v>162.0996687415859</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L27" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M27" t="n">
         <v>254.3525508108055</v>
@@ -36688,16 +36688,16 @@
         <v>261.0845059811313</v>
       </c>
       <c r="O27" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P27" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q27" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K28" t="n">
-        <v>101.9958329642697</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L28" t="n">
         <v>547.556245844706</v>
       </c>
       <c r="M28" t="n">
-        <v>596.0487469893359</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
-        <v>575.5128433954892</v>
+        <v>508.9762036458162</v>
       </c>
       <c r="O28" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P28" t="n">
-        <v>452.8039900485105</v>
+        <v>452.8039900485101</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R28" t="n">
         <v>16.63746735027015</v>
@@ -36831,10 +36831,10 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J29" t="n">
-        <v>598.8903663599629</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>276.8855865044499</v>
+        <v>716.536785951836</v>
       </c>
       <c r="L29" t="n">
         <v>296.0766412766674</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916832</v>
+        <v>34.56235976916763</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K30" t="n">
-        <v>162.0996687415859</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L30" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M30" t="n">
         <v>254.3525508108055</v>
@@ -36925,16 +36925,16 @@
         <v>261.0845059811313</v>
       </c>
       <c r="O30" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P30" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q30" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,16 +36989,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K31" t="n">
-        <v>101.9958329642697</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L31" t="n">
         <v>547.556245844706</v>
       </c>
       <c r="M31" t="n">
-        <v>596.0487469893359</v>
+        <v>596.0487469893358</v>
       </c>
       <c r="N31" t="n">
         <v>575.5128433954892</v>
@@ -37007,10 +37007,10 @@
         <v>542.8637682561043</v>
       </c>
       <c r="P31" t="n">
-        <v>452.8039900485105</v>
+        <v>199.676024430375</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R31" t="n">
         <v>16.63746735027015</v>
@@ -37068,19 +37068,19 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J32" t="n">
-        <v>159.239166912571</v>
+        <v>598.8903663599629</v>
       </c>
       <c r="K32" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L32" t="n">
-        <v>374.3819787931258</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M32" t="n">
-        <v>893.3351133478408</v>
+        <v>367.6696650797635</v>
       </c>
       <c r="N32" t="n">
-        <v>893.3351133478409</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
         <v>316.1166813548411</v>
@@ -37089,10 +37089,10 @@
         <v>269.7982739184536</v>
       </c>
       <c r="Q32" t="n">
-        <v>202.6072676879471</v>
+        <v>754.6262434036994</v>
       </c>
       <c r="R32" t="n">
-        <v>117.855135640546</v>
+        <v>288.7178273103004</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916763</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562341</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
@@ -37159,7 +37159,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O33" t="n">
         <v>238.8413159742734</v>
@@ -37168,7 +37168,7 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q33" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
         <v>62.32672164233622</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624559</v>
       </c>
       <c r="K34" t="n">
-        <v>101.9958329642697</v>
+        <v>101.9958329642689</v>
       </c>
       <c r="L34" t="n">
         <v>547.556245844706</v>
@@ -37244,7 +37244,7 @@
         <v>542.8637682561043</v>
       </c>
       <c r="P34" t="n">
-        <v>452.8039900485105</v>
+        <v>452.8039900485101</v>
       </c>
       <c r="Q34" t="n">
         <v>70.4719911420766</v>
@@ -37469,13 +37469,13 @@
         <v>97.77787936116989</v>
       </c>
       <c r="L37" t="n">
-        <v>281.8524450409513</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M37" t="n">
-        <v>590.0818943619342</v>
+        <v>576.9206257840676</v>
       </c>
       <c r="N37" t="n">
-        <v>575.5128433954892</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O37" t="n">
         <v>542.8637682561043</v>
@@ -37484,7 +37484,7 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R37" t="n">
         <v>16.63746735027015</v>
@@ -37703,25 +37703,25 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>216.0496516915127</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L40" t="n">
         <v>547.5562458447062</v>
       </c>
       <c r="M40" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N40" t="n">
-        <v>128.7867795998884</v>
+        <v>382.7003105265221</v>
       </c>
       <c r="O40" t="n">
-        <v>542.8637682561043</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P40" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q40" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R40" t="n">
         <v>16.63746735027015</v>
@@ -37779,7 +37779,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J41" t="n">
-        <v>159.2391669125712</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
         <v>238.6582327062838</v>
@@ -37861,10 +37861,10 @@
         <v>94.84175691562339</v>
       </c>
       <c r="K42" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
         <v>254.3525508108055</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116989</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L43" t="n">
-        <v>281.8524450409513</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M43" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N43" t="n">
-        <v>575.5128433954892</v>
+        <v>304.5047560030955</v>
       </c>
       <c r="O43" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P43" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R43" t="n">
         <v>16.63746735027015</v>
@@ -38013,19 +38013,19 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J44" t="n">
-        <v>159.2391669125714</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L44" t="n">
         <v>296.0766412766673</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816032</v>
+        <v>329.442311281603</v>
       </c>
       <c r="N44" t="n">
         <v>334.7730322994721</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J45" t="n">
         <v>94.84175691562339</v>
@@ -38107,7 +38107,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O45" t="n">
         <v>238.8413159742734</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L46" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M46" t="n">
-        <v>309.1157135712374</v>
+        <v>395.7952529497134</v>
       </c>
       <c r="N46" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O46" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P46" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q46" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R46" t="n">
         <v>16.63746735027015</v>
